--- a/6_appendix/deterministicResponses.xlsx
+++ b/6_appendix/deterministicResponses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,141 +441,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Natural language processing: Large language models can be used for tasks such as text generation, sentiment analysis, language translation, and speech recognition.
+2. Chatbots and virtual assistants: Large language models can be used to create more advanced and human-like</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate human-like text for various purposes such as writing articles, creating marketing copy, or generating dialogue for chatbots.
+2. Translation: Large language models can be used to improve machine translation systems</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate human-like text for various purposes such as writing articles, creating marketing copy, or generating dialogue for chatbots.
+2. Translation: Large language models can be used to improve machine translation systems</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries.
-Some of the key significance</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality and coherent text for various purposes, such as writing articles, creating marketing copy, or generating dialogue for chatbots.
+2. Translation: Large language models can be used to improve</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Natural language processing: Large language models can be used for tasks such as text generation, sentiment analysis, language translation, and speech recognition.
+2. Chatbots and virtual assistants: Large language models can power chatbots and virtual assistants that can interact</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Natural language processing: Large language models can be used for tasks such as text generation, sentiment analysis, language translation, and speech recognition.
+2. Chatbots and virtual assistants: Large language models can be used to create more advanced and human-like</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Natural language processing: Large language models can be used for tasks such as text generation, sentiment analysis, language translation, and speech recognition.
+2. Chatbots and virtual assistants: Large language models can be used to create more advanced and human-like</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate human-like text for various purposes such as writing articles, creating marketing copy, or generating dialogue for chatbots.
+2. Translation: Large language models can be used to improve machine translation systems</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Content generation: Large language models can be used to generate human-like text for various purposes such as writing articles, creating marketing copy, or generating dialogue for chatbots.
+2. Translation: Large language models can be used to improve machine translation systems</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Machine learning has become increasingly significant in modern industries due to its ability to analyze and interpret large amounts of data quickly and accurately. This technology allows businesses to make data-driven decisions, improve efficiency, and optimize processes in various industries such as healthcare, finance,</t>
+          <t>1. Natural language processing: Large language models can be used for tasks such as text generation, sentiment analysis, language translation, and speech recognition.
+2. Chatbots and virtual assistants: Large language models can be used to create more advanced and human-like</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating social media posts.
+2. Translation: Large language models can be used to improve the accuracy and</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve machine translation systems by</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate human-like text for various purposes such as writing articles, creating marketing copy, or generating dialogue for chatbots.
+2. Translation: Large language models can be used to improve machine translation systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate human-like text for various purposes such as writing articles, creating marketing copy, or generating dialogue for chatbots.
+2. Translation: Large language models can be used to improve machine translation systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate high-quality and coherent text for various purposes, such as writing articles, creating marketing copy, or generating dialogue for chatbots.
+2. Translation: Large language models can be used to improve</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1. Content generation: Large language models can be used to generate high-quality content for various purposes, such as writing articles, creating marketing materials, or generating product descriptions.
+2. Translation: Large language models can be used to improve the accuracy and efficiency</t>
         </is>
       </c>
     </row>
